--- a/natmiOut/OldD2/LR-pairs_lrc2p/Hsp90aa1-Egfr.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Hsp90aa1-Egfr.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>66.22260545332119</v>
+        <v>66.84187299999999</v>
       </c>
       <c r="H2">
-        <v>66.22260545332119</v>
+        <v>133.683746</v>
       </c>
       <c r="I2">
-        <v>0.08832243167187816</v>
+        <v>0.08595451855501718</v>
       </c>
       <c r="J2">
-        <v>0.08832243167187816</v>
+        <v>0.0646004996207997</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.55684888033559</v>
+        <v>0.569834</v>
       </c>
       <c r="N2">
-        <v>0.55684888033559</v>
+        <v>1.139668</v>
       </c>
       <c r="O2">
-        <v>0.008062564649567625</v>
+        <v>0.007670604929513537</v>
       </c>
       <c r="P2">
-        <v>0.008062564649567625</v>
+        <v>0.005687058042690201</v>
       </c>
       <c r="Q2">
-        <v>36.87598369958744</v>
+        <v>38.08877185908199</v>
       </c>
       <c r="R2">
-        <v>36.87598369958744</v>
+        <v>152.355087436328</v>
       </c>
       <c r="S2">
-        <v>0.0007121053153615368</v>
+        <v>0.0006593231537420776</v>
       </c>
       <c r="T2">
-        <v>0.0007121053153615368</v>
+        <v>0.0003673867909302742</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>66.22260545332119</v>
+        <v>66.84187299999999</v>
       </c>
       <c r="H3">
-        <v>66.22260545332119</v>
+        <v>133.683746</v>
       </c>
       <c r="I3">
-        <v>0.08832243167187816</v>
+        <v>0.08595451855501718</v>
       </c>
       <c r="J3">
-        <v>0.08832243167187816</v>
+        <v>0.0646004996207997</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>46.6628512328905</v>
+        <v>50.102415</v>
       </c>
       <c r="N3">
-        <v>46.6628512328905</v>
+        <v>150.307245</v>
       </c>
       <c r="O3">
-        <v>0.6756272088966082</v>
+        <v>0.6744347151618419</v>
       </c>
       <c r="P3">
-        <v>0.6756272088966082</v>
+        <v>0.7500482829664925</v>
       </c>
       <c r="Q3">
-        <v>3090.13558652273</v>
+        <v>3348.939260423295</v>
       </c>
       <c r="R3">
-        <v>3090.13558652273</v>
+        <v>20093.63556253977</v>
       </c>
       <c r="S3">
-        <v>0.05967303799343243</v>
+        <v>0.05797071123852627</v>
       </c>
       <c r="T3">
-        <v>0.05967303799343243</v>
+        <v>0.04845349381935836</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>66.22260545332119</v>
+        <v>66.84187299999999</v>
       </c>
       <c r="H4">
-        <v>66.22260545332119</v>
+        <v>133.683746</v>
       </c>
       <c r="I4">
-        <v>0.08832243167187816</v>
+        <v>0.08595451855501718</v>
       </c>
       <c r="J4">
-        <v>0.08832243167187816</v>
+        <v>0.0646004996207997</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.396210090471873</v>
+        <v>0.4051446666666667</v>
       </c>
       <c r="N4">
-        <v>0.396210090471873</v>
+        <v>1.215434</v>
       </c>
       <c r="O4">
-        <v>0.00573669011835911</v>
+        <v>0.005453701739979455</v>
       </c>
       <c r="P4">
-        <v>0.00573669011835911</v>
+        <v>0.006065138009542361</v>
       </c>
       <c r="Q4">
-        <v>26.23806449794354</v>
+        <v>27.08062835596067</v>
       </c>
       <c r="R4">
-        <v>26.23806449794354</v>
+        <v>162.483770135764</v>
       </c>
       <c r="S4">
-        <v>0.0005066784210015111</v>
+        <v>0.0004687703074025936</v>
       </c>
       <c r="T4">
-        <v>0.0005066784210015111</v>
+        <v>0.0003918109456855391</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>66.22260545332119</v>
+        <v>66.84187299999999</v>
       </c>
       <c r="H5">
-        <v>66.22260545332119</v>
+        <v>133.683746</v>
       </c>
       <c r="I5">
-        <v>0.08832243167187816</v>
+        <v>0.08595451855501718</v>
       </c>
       <c r="J5">
-        <v>0.08832243167187816</v>
+        <v>0.0646004996207997</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.28256418987611</v>
+        <v>0.2841426666666667</v>
       </c>
       <c r="N5">
-        <v>0.28256418987611</v>
+        <v>0.8524280000000001</v>
       </c>
       <c r="O5">
-        <v>0.004091221386951277</v>
+        <v>0.00382487906937539</v>
       </c>
       <c r="P5">
-        <v>0.004091221386951277</v>
+        <v>0.004253701528176911</v>
       </c>
       <c r="Q5">
-        <v>18.71213686140297</v>
+        <v>18.99262803921467</v>
       </c>
       <c r="R5">
-        <v>18.71213686140297</v>
+        <v>113.955768235288</v>
       </c>
       <c r="S5">
-        <v>0.0003613466214035308</v>
+        <v>0.0003287656389393238</v>
       </c>
       <c r="T5">
-        <v>0.0003613466214035308</v>
+        <v>0.0002747912439579876</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>66.22260545332119</v>
+        <v>66.84187299999999</v>
       </c>
       <c r="H6">
-        <v>66.22260545332119</v>
+        <v>133.683746</v>
       </c>
       <c r="I6">
-        <v>0.08832243167187816</v>
+        <v>0.08595451855501718</v>
       </c>
       <c r="J6">
-        <v>0.08832243167187816</v>
+        <v>0.0646004996207997</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.907899109846906</v>
+        <v>1.029030333333333</v>
       </c>
       <c r="N6">
-        <v>0.907899109846906</v>
+        <v>3.087091</v>
       </c>
       <c r="O6">
-        <v>0.01314538921944876</v>
+        <v>0.01385190274270336</v>
       </c>
       <c r="P6">
-        <v>0.01314538921944876</v>
+        <v>0.01540489484662774</v>
       </c>
       <c r="Q6">
-        <v>60.12344454281317</v>
+        <v>68.78231485381433</v>
       </c>
       <c r="R6">
-        <v>60.12344454281317</v>
+        <v>412.6938891228859</v>
       </c>
       <c r="S6">
-        <v>0.001161032741135007</v>
+        <v>0.001190633631319989</v>
       </c>
       <c r="T6">
-        <v>0.001161032741135007</v>
+        <v>0.0009951639036980342</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>66.22260545332119</v>
+        <v>66.84187299999999</v>
       </c>
       <c r="H7">
-        <v>66.22260545332119</v>
+        <v>133.683746</v>
       </c>
       <c r="I7">
-        <v>0.08832243167187816</v>
+        <v>0.08595451855501718</v>
       </c>
       <c r="J7">
-        <v>0.08832243167187816</v>
+        <v>0.0646004996207997</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.2596004811042</v>
+        <v>21.8974465</v>
       </c>
       <c r="N7">
-        <v>20.2596004811042</v>
+        <v>43.794893</v>
       </c>
       <c r="O7">
-        <v>0.293336925729065</v>
+        <v>0.2947641963565862</v>
       </c>
       <c r="P7">
-        <v>0.293336925729065</v>
+        <v>0.2185409246064703</v>
       </c>
       <c r="Q7">
-        <v>1341.64352930208</v>
+        <v>1463.666337977294</v>
       </c>
       <c r="R7">
-        <v>1341.64352930208</v>
+        <v>5854.665351909178</v>
       </c>
       <c r="S7">
-        <v>0.02590823057954414</v>
+        <v>0.02533631458508692</v>
       </c>
       <c r="T7">
-        <v>0.02590823057954414</v>
+        <v>0.0141178529171695</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>153.923807472541</v>
+        <v>163.849045</v>
       </c>
       <c r="H8">
-        <v>153.923807472541</v>
+        <v>491.547135</v>
       </c>
       <c r="I8">
-        <v>0.2052913030996883</v>
+        <v>0.2106997477266137</v>
       </c>
       <c r="J8">
-        <v>0.2052913030996883</v>
+        <v>0.2375321716985151</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.55684888033559</v>
+        <v>0.569834</v>
       </c>
       <c r="N8">
-        <v>0.55684888033559</v>
+        <v>1.139668</v>
       </c>
       <c r="O8">
-        <v>0.008062564649567625</v>
+        <v>0.007670604929513537</v>
       </c>
       <c r="P8">
-        <v>0.008062564649567625</v>
+        <v>0.005687058042690201</v>
       </c>
       <c r="Q8">
-        <v>85.71229984807538</v>
+        <v>93.36675670853</v>
       </c>
       <c r="R8">
-        <v>85.71229984807538</v>
+        <v>560.20054025118</v>
       </c>
       <c r="S8">
-        <v>0.001655174403235219</v>
+        <v>0.001616194523559021</v>
       </c>
       <c r="T8">
-        <v>0.001655174403235219</v>
+        <v>0.00135085924745571</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>153.923807472541</v>
+        <v>163.849045</v>
       </c>
       <c r="H9">
-        <v>153.923807472541</v>
+        <v>491.547135</v>
       </c>
       <c r="I9">
-        <v>0.2052913030996883</v>
+        <v>0.2106997477266137</v>
       </c>
       <c r="J9">
-        <v>0.2052913030996883</v>
+        <v>0.2375321716985151</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>46.6628512328905</v>
+        <v>50.102415</v>
       </c>
       <c r="N9">
-        <v>46.6628512328905</v>
+        <v>150.307245</v>
       </c>
       <c r="O9">
-        <v>0.6756272088966082</v>
+        <v>0.6744347151618419</v>
       </c>
       <c r="P9">
-        <v>0.6756272088966082</v>
+        <v>0.7500482829664925</v>
       </c>
       <c r="Q9">
-        <v>7182.523729291261</v>
+        <v>8209.232849943675</v>
       </c>
       <c r="R9">
-        <v>7182.523729291261</v>
+        <v>73883.09564949307</v>
       </c>
       <c r="S9">
-        <v>0.13870039012399</v>
+        <v>0.1421032243426706</v>
       </c>
       <c r="T9">
-        <v>0.13870039012399</v>
+        <v>0.1781605975317734</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>153.923807472541</v>
+        <v>163.849045</v>
       </c>
       <c r="H10">
-        <v>153.923807472541</v>
+        <v>491.547135</v>
       </c>
       <c r="I10">
-        <v>0.2052913030996883</v>
+        <v>0.2106997477266137</v>
       </c>
       <c r="J10">
-        <v>0.2052913030996883</v>
+        <v>0.2375321716985151</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.396210090471873</v>
+        <v>0.4051446666666667</v>
       </c>
       <c r="N10">
-        <v>0.396210090471873</v>
+        <v>1.215434</v>
       </c>
       <c r="O10">
-        <v>0.00573669011835911</v>
+        <v>0.005453701739979455</v>
       </c>
       <c r="P10">
-        <v>0.00573669011835911</v>
+        <v>0.006065138009542361</v>
       </c>
       <c r="Q10">
-        <v>60.98616568447063</v>
+        <v>66.38256672017668</v>
       </c>
       <c r="R10">
-        <v>60.98616568447063</v>
+        <v>597.4431004815901</v>
       </c>
       <c r="S10">
-        <v>0.001177692589877047</v>
+        <v>0.001149093580789865</v>
       </c>
       <c r="T10">
-        <v>0.001177692589877047</v>
+        <v>0.001440665403057806</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>153.923807472541</v>
+        <v>163.849045</v>
       </c>
       <c r="H11">
-        <v>153.923807472541</v>
+        <v>491.547135</v>
       </c>
       <c r="I11">
-        <v>0.2052913030996883</v>
+        <v>0.2106997477266137</v>
       </c>
       <c r="J11">
-        <v>0.2052913030996883</v>
+        <v>0.2375321716985151</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.28256418987611</v>
+        <v>0.2841426666666667</v>
       </c>
       <c r="N11">
-        <v>0.28256418987611</v>
+        <v>0.8524280000000001</v>
       </c>
       <c r="O11">
-        <v>0.004091221386951277</v>
+        <v>0.00382487906937539</v>
       </c>
       <c r="P11">
-        <v>0.004091221386951277</v>
+        <v>0.004253701528176911</v>
       </c>
       <c r="Q11">
-        <v>43.49335596112487</v>
+        <v>46.55650457708668</v>
       </c>
       <c r="R11">
-        <v>43.49335596112487</v>
+        <v>419.00854119378</v>
       </c>
       <c r="S11">
-        <v>0.0008398921697965417</v>
+        <v>0.0008059010550021994</v>
       </c>
       <c r="T11">
-        <v>0.0008398921697965417</v>
+        <v>0.001010390961745154</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>153.923807472541</v>
+        <v>163.849045</v>
       </c>
       <c r="H12">
-        <v>153.923807472541</v>
+        <v>491.547135</v>
       </c>
       <c r="I12">
-        <v>0.2052913030996883</v>
+        <v>0.2106997477266137</v>
       </c>
       <c r="J12">
-        <v>0.2052913030996883</v>
+        <v>0.2375321716985151</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.907899109846906</v>
+        <v>1.029030333333333</v>
       </c>
       <c r="N12">
-        <v>0.907899109846906</v>
+        <v>3.087091</v>
       </c>
       <c r="O12">
-        <v>0.01314538921944876</v>
+        <v>0.01385190274270336</v>
       </c>
       <c r="P12">
-        <v>0.01314538921944876</v>
+        <v>0.01540489484662774</v>
       </c>
       <c r="Q12">
-        <v>139.7472877885665</v>
+        <v>168.6056373926984</v>
       </c>
       <c r="R12">
-        <v>139.7472877885665</v>
+        <v>1517.450736534285</v>
       </c>
       <c r="S12">
-        <v>0.00269863408261323</v>
+        <v>0.002918592413421185</v>
       </c>
       <c r="T12">
-        <v>0.00269863408261323</v>
+        <v>0.00365915812770675</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>153.923807472541</v>
+        <v>163.849045</v>
       </c>
       <c r="H13">
-        <v>153.923807472541</v>
+        <v>491.547135</v>
       </c>
       <c r="I13">
-        <v>0.2052913030996883</v>
+        <v>0.2106997477266137</v>
       </c>
       <c r="J13">
-        <v>0.2052913030996883</v>
+        <v>0.2375321716985151</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>20.2596004811042</v>
+        <v>21.8974465</v>
       </c>
       <c r="N13">
-        <v>20.2596004811042</v>
+        <v>43.794893</v>
       </c>
       <c r="O13">
-        <v>0.293336925729065</v>
+        <v>0.2947641963565862</v>
       </c>
       <c r="P13">
-        <v>0.293336925729065</v>
+        <v>0.2185409246064703</v>
       </c>
       <c r="Q13">
-        <v>3118.434843924082</v>
+        <v>3587.875696963593</v>
       </c>
       <c r="R13">
-        <v>3118.434843924082</v>
+        <v>21527.25418178156</v>
       </c>
       <c r="S13">
-        <v>0.06021951973017623</v>
+        <v>0.06210674181117073</v>
       </c>
       <c r="T13">
-        <v>0.06021951973017623</v>
+        <v>0.05191050042677636</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>125.808400368787</v>
+        <v>126.6090903333333</v>
       </c>
       <c r="H14">
-        <v>125.808400368787</v>
+        <v>379.827271</v>
       </c>
       <c r="I14">
-        <v>0.1677932145565137</v>
+        <v>0.1628114670618274</v>
       </c>
       <c r="J14">
-        <v>0.1677932145565137</v>
+        <v>0.1835453614249027</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.55684888033559</v>
+        <v>0.569834</v>
       </c>
       <c r="N14">
-        <v>0.55684888033559</v>
+        <v>1.139668</v>
       </c>
       <c r="O14">
-        <v>0.008062564649567625</v>
+        <v>0.007670604929513537</v>
       </c>
       <c r="P14">
-        <v>0.008062564649567625</v>
+        <v>0.005687058042690201</v>
       </c>
       <c r="Q14">
-        <v>70.05626688217068</v>
+        <v>72.14616438100465</v>
       </c>
       <c r="R14">
-        <v>70.05626688217068</v>
+        <v>432.8769862860279</v>
       </c>
       <c r="S14">
-        <v>0.001352843640120664</v>
+        <v>0.001248862441825784</v>
       </c>
       <c r="T14">
-        <v>0.001352843640120664</v>
+        <v>0.001043833123889973</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>125.808400368787</v>
+        <v>126.6090903333333</v>
       </c>
       <c r="H15">
-        <v>125.808400368787</v>
+        <v>379.827271</v>
       </c>
       <c r="I15">
-        <v>0.1677932145565137</v>
+        <v>0.1628114670618274</v>
       </c>
       <c r="J15">
-        <v>0.1677932145565137</v>
+        <v>0.1835453614249027</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>46.6628512328905</v>
+        <v>50.102415</v>
       </c>
       <c r="N15">
-        <v>46.6628512328905</v>
+        <v>150.307245</v>
       </c>
       <c r="O15">
-        <v>0.6756272088966082</v>
+        <v>0.6744347151618419</v>
       </c>
       <c r="P15">
-        <v>0.6756272088966082</v>
+        <v>0.7500482829664925</v>
       </c>
       <c r="Q15">
-        <v>5870.578670256635</v>
+        <v>6343.421186653155</v>
       </c>
       <c r="R15">
-        <v>5870.578670256635</v>
+        <v>57090.7906798784</v>
       </c>
       <c r="S15">
-        <v>0.1133656612226071</v>
+        <v>0.1098057054129252</v>
       </c>
       <c r="T15">
-        <v>0.1133656612226071</v>
+        <v>0.1376678831832125</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>125.808400368787</v>
+        <v>126.6090903333333</v>
       </c>
       <c r="H16">
-        <v>125.808400368787</v>
+        <v>379.827271</v>
       </c>
       <c r="I16">
-        <v>0.1677932145565137</v>
+        <v>0.1628114670618274</v>
       </c>
       <c r="J16">
-        <v>0.1677932145565137</v>
+        <v>0.1835453614249027</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.396210090471873</v>
+        <v>0.4051446666666667</v>
       </c>
       <c r="N16">
-        <v>0.396210090471873</v>
+        <v>1.215434</v>
       </c>
       <c r="O16">
-        <v>0.00573669011835911</v>
+        <v>0.005453701739979455</v>
       </c>
       <c r="P16">
-        <v>0.00573669011835911</v>
+        <v>0.006065138009542361</v>
       </c>
       <c r="Q16">
-        <v>49.84655769223872</v>
+        <v>51.29499770006822</v>
       </c>
       <c r="R16">
-        <v>49.84655769223872</v>
+        <v>461.6549793006141</v>
       </c>
       <c r="S16">
-        <v>0.0009625776758740624</v>
+        <v>0.0008879251812036957</v>
       </c>
       <c r="T16">
-        <v>0.0009625776758740624</v>
+        <v>0.001113227948053368</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>125.808400368787</v>
+        <v>126.6090903333333</v>
       </c>
       <c r="H17">
-        <v>125.808400368787</v>
+        <v>379.827271</v>
       </c>
       <c r="I17">
-        <v>0.1677932145565137</v>
+        <v>0.1628114670618274</v>
       </c>
       <c r="J17">
-        <v>0.1677932145565137</v>
+        <v>0.1835453614249027</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.28256418987611</v>
+        <v>0.2841426666666667</v>
       </c>
       <c r="N17">
-        <v>0.28256418987611</v>
+        <v>0.8524280000000001</v>
       </c>
       <c r="O17">
-        <v>0.004091221386951277</v>
+        <v>0.00382487906937539</v>
       </c>
       <c r="P17">
-        <v>0.004091221386951277</v>
+        <v>0.004253701528176911</v>
       </c>
       <c r="Q17">
-        <v>35.5489487298156</v>
+        <v>35.97504455155423</v>
       </c>
       <c r="R17">
-        <v>35.5489487298156</v>
+        <v>323.775400963988</v>
       </c>
       <c r="S17">
-        <v>0.0006864791879789134</v>
+        <v>0.0006227341726190842</v>
       </c>
       <c r="T17">
-        <v>0.0006864791879789134</v>
+        <v>0.0007807471843828921</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>125.808400368787</v>
+        <v>126.6090903333333</v>
       </c>
       <c r="H18">
-        <v>125.808400368787</v>
+        <v>379.827271</v>
       </c>
       <c r="I18">
-        <v>0.1677932145565137</v>
+        <v>0.1628114670618274</v>
       </c>
       <c r="J18">
-        <v>0.1677932145565137</v>
+        <v>0.1835453614249027</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.907899109846906</v>
+        <v>1.029030333333333</v>
       </c>
       <c r="N18">
-        <v>0.907899109846906</v>
+        <v>3.087091</v>
       </c>
       <c r="O18">
-        <v>0.01314538921944876</v>
+        <v>0.01385190274270336</v>
       </c>
       <c r="P18">
-        <v>0.01314538921944876</v>
+        <v>0.01540489484662774</v>
       </c>
       <c r="Q18">
-        <v>114.2213347060849</v>
+        <v>130.2845944287401</v>
       </c>
       <c r="R18">
-        <v>114.2213347060849</v>
+        <v>1172.561349858661</v>
       </c>
       <c r="S18">
-        <v>0.002205707113727849</v>
+        <v>0.002255248607137284</v>
       </c>
       <c r="T18">
-        <v>0.002205707113727849</v>
+        <v>0.002827496992336908</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>125.808400368787</v>
+        <v>126.6090903333333</v>
       </c>
       <c r="H19">
-        <v>125.808400368787</v>
+        <v>379.827271</v>
       </c>
       <c r="I19">
-        <v>0.1677932145565137</v>
+        <v>0.1628114670618274</v>
       </c>
       <c r="J19">
-        <v>0.1677932145565137</v>
+        <v>0.1835453614249027</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>20.2596004811042</v>
+        <v>21.8974465</v>
       </c>
       <c r="N19">
-        <v>20.2596004811042</v>
+        <v>43.794893</v>
       </c>
       <c r="O19">
-        <v>0.293336925729065</v>
+        <v>0.2947641963565862</v>
       </c>
       <c r="P19">
-        <v>0.293336925729065</v>
+        <v>0.2185409246064703</v>
       </c>
       <c r="Q19">
-        <v>2548.827928638427</v>
+        <v>2772.415781987834</v>
       </c>
       <c r="R19">
-        <v>2548.827928638427</v>
+        <v>16634.494691927</v>
       </c>
       <c r="S19">
-        <v>0.04921994571620514</v>
+        <v>0.04799099124611635</v>
       </c>
       <c r="T19">
-        <v>0.04921994571620514</v>
+        <v>0.04011217299302701</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>137.851315029753</v>
+        <v>138.332156</v>
       </c>
       <c r="H20">
-        <v>137.851315029753</v>
+        <v>414.996468</v>
       </c>
       <c r="I20">
-        <v>0.1838550940309355</v>
+        <v>0.1778866051473084</v>
       </c>
       <c r="J20">
-        <v>0.1838550940309355</v>
+        <v>0.2005403048300817</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.55684888033559</v>
+        <v>0.569834</v>
       </c>
       <c r="N20">
-        <v>0.55684888033559</v>
+        <v>1.139668</v>
       </c>
       <c r="O20">
-        <v>0.008062564649567625</v>
+        <v>0.007670604929513537</v>
       </c>
       <c r="P20">
-        <v>0.008062564649567625</v>
+        <v>0.005687058042690201</v>
       </c>
       <c r="Q20">
-        <v>76.76235042710665</v>
+        <v>78.82636578210399</v>
       </c>
       <c r="R20">
-        <v>76.76235042710665</v>
+        <v>472.958194692624</v>
       </c>
       <c r="S20">
-        <v>0.001482343581776752</v>
+        <v>0.001364497870337372</v>
       </c>
       <c r="T20">
-        <v>0.001482343581776752</v>
+        <v>0.001140484353467461</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>137.851315029753</v>
+        <v>138.332156</v>
       </c>
       <c r="H21">
-        <v>137.851315029753</v>
+        <v>414.996468</v>
       </c>
       <c r="I21">
-        <v>0.1838550940309355</v>
+        <v>0.1778866051473084</v>
       </c>
       <c r="J21">
-        <v>0.1838550940309355</v>
+        <v>0.2005403048300817</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>46.6628512328905</v>
+        <v>50.102415</v>
       </c>
       <c r="N21">
-        <v>46.6628512328905</v>
+        <v>150.307245</v>
       </c>
       <c r="O21">
-        <v>0.6756272088966082</v>
+        <v>0.6744347151618419</v>
       </c>
       <c r="P21">
-        <v>0.6756272088966082</v>
+        <v>0.7500482829664925</v>
       </c>
       <c r="Q21">
-        <v>6432.535405491687</v>
+        <v>6930.77508775674</v>
       </c>
       <c r="R21">
-        <v>6432.535405491687</v>
+        <v>62376.97578981065</v>
       </c>
       <c r="S21">
-        <v>0.1242175040215444</v>
+        <v>0.119972901873632</v>
       </c>
       <c r="T21">
-        <v>0.1242175040215444</v>
+        <v>0.1504149113033798</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>137.851315029753</v>
+        <v>138.332156</v>
       </c>
       <c r="H22">
-        <v>137.851315029753</v>
+        <v>414.996468</v>
       </c>
       <c r="I22">
-        <v>0.1838550940309355</v>
+        <v>0.1778866051473084</v>
       </c>
       <c r="J22">
-        <v>0.1838550940309355</v>
+        <v>0.2005403048300817</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.396210090471873</v>
+        <v>0.4051446666666667</v>
       </c>
       <c r="N22">
-        <v>0.396210090471873</v>
+        <v>1.215434</v>
       </c>
       <c r="O22">
-        <v>0.00573669011835911</v>
+        <v>0.005453701739979455</v>
       </c>
       <c r="P22">
-        <v>0.00573669011835911</v>
+        <v>0.006065138009542361</v>
       </c>
       <c r="Q22">
-        <v>54.61808199960511</v>
+        <v>56.04453523190134</v>
       </c>
       <c r="R22">
-        <v>54.61808199960511</v>
+        <v>504.400817087112</v>
       </c>
       <c r="S22">
-        <v>0.001054719701137253</v>
+        <v>0.000970140488010914</v>
       </c>
       <c r="T22">
-        <v>0.001054719701137253</v>
+        <v>0.00121630462527014</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>137.851315029753</v>
+        <v>138.332156</v>
       </c>
       <c r="H23">
-        <v>137.851315029753</v>
+        <v>414.996468</v>
       </c>
       <c r="I23">
-        <v>0.1838550940309355</v>
+        <v>0.1778866051473084</v>
       </c>
       <c r="J23">
-        <v>0.1838550940309355</v>
+        <v>0.2005403048300817</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.28256418987611</v>
+        <v>0.2841426666666667</v>
       </c>
       <c r="N23">
-        <v>0.28256418987611</v>
+        <v>0.8524280000000001</v>
       </c>
       <c r="O23">
-        <v>0.004091221386951277</v>
+        <v>0.00382487906937539</v>
       </c>
       <c r="P23">
-        <v>0.004091221386951277</v>
+        <v>0.004253701528176911</v>
       </c>
       <c r="Q23">
-        <v>38.95184515473859</v>
+        <v>39.30606769158934</v>
       </c>
       <c r="R23">
-        <v>38.95184515473859</v>
+        <v>353.754609224304</v>
       </c>
       <c r="S23">
-        <v>0.0007521918927993014</v>
+        <v>0.0006803947527501842</v>
       </c>
       <c r="T23">
-        <v>0.0007521918927993014</v>
+        <v>0.0008530386011167823</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>137.851315029753</v>
+        <v>138.332156</v>
       </c>
       <c r="H24">
-        <v>137.851315029753</v>
+        <v>414.996468</v>
       </c>
       <c r="I24">
-        <v>0.1838550940309355</v>
+        <v>0.1778866051473084</v>
       </c>
       <c r="J24">
-        <v>0.1838550940309355</v>
+        <v>0.2005403048300817</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.907899109846906</v>
+        <v>1.029030333333333</v>
       </c>
       <c r="N24">
-        <v>0.907899109846906</v>
+        <v>3.087091</v>
       </c>
       <c r="O24">
-        <v>0.01314538921944876</v>
+        <v>0.01385190274270336</v>
       </c>
       <c r="P24">
-        <v>0.01314538921944876</v>
+        <v>0.01540489484662774</v>
       </c>
       <c r="Q24">
-        <v>125.1550862067382</v>
+        <v>142.3479845993986</v>
       </c>
       <c r="R24">
-        <v>125.1550862067382</v>
+        <v>1281.131861394588</v>
       </c>
       <c r="S24">
-        <v>0.002416846771014998</v>
+        <v>0.00246406795373019</v>
       </c>
       <c r="T24">
-        <v>0.002416846771014998</v>
+        <v>0.003089302308418081</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>137.851315029753</v>
+        <v>138.332156</v>
       </c>
       <c r="H25">
-        <v>137.851315029753</v>
+        <v>414.996468</v>
       </c>
       <c r="I25">
-        <v>0.1838550940309355</v>
+        <v>0.1778866051473084</v>
       </c>
       <c r="J25">
-        <v>0.1838550940309355</v>
+        <v>0.2005403048300817</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>20.2596004811042</v>
+        <v>21.8974465</v>
       </c>
       <c r="N25">
-        <v>20.2596004811042</v>
+        <v>43.794893</v>
       </c>
       <c r="O25">
-        <v>0.293336925729065</v>
+        <v>0.2947641963565862</v>
       </c>
       <c r="P25">
-        <v>0.293336925729065</v>
+        <v>0.2185409246064703</v>
       </c>
       <c r="Q25">
-        <v>2792.812568297631</v>
+        <v>3029.120985239654</v>
       </c>
       <c r="R25">
-        <v>2792.812568297631</v>
+        <v>18174.72591143792</v>
       </c>
       <c r="S25">
-        <v>0.05393148806266279</v>
+        <v>0.05243460220884773</v>
       </c>
       <c r="T25">
-        <v>0.05393148806266279</v>
+        <v>0.04382626363842947</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>77.06758729234571</v>
+        <v>85.31685533333332</v>
       </c>
       <c r="H26">
-        <v>77.06758729234571</v>
+        <v>255.950566</v>
       </c>
       <c r="I26">
-        <v>0.1027866038515</v>
+        <v>0.1097122042765725</v>
       </c>
       <c r="J26">
-        <v>0.1027866038515</v>
+        <v>0.1236839551296421</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.55684888033559</v>
+        <v>0.569834</v>
       </c>
       <c r="N26">
-        <v>0.55684888033559</v>
+        <v>1.139668</v>
       </c>
       <c r="O26">
-        <v>0.008062564649567625</v>
+        <v>0.007670604929513537</v>
       </c>
       <c r="P26">
-        <v>0.008062564649567625</v>
+        <v>0.005687058042690201</v>
       </c>
       <c r="Q26">
-        <v>42.91499969390805</v>
+        <v>48.61644494201466</v>
       </c>
       <c r="R26">
-        <v>42.91499969390805</v>
+        <v>291.698669652088</v>
       </c>
       <c r="S26">
-        <v>0.0008287236386622154</v>
+        <v>0.0008415589749516733</v>
       </c>
       <c r="T26">
-        <v>0.0008287236386622154</v>
+        <v>0.000703397831771765</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>77.06758729234571</v>
+        <v>85.31685533333332</v>
       </c>
       <c r="H27">
-        <v>77.06758729234571</v>
+        <v>255.950566</v>
       </c>
       <c r="I27">
-        <v>0.1027866038515</v>
+        <v>0.1097122042765725</v>
       </c>
       <c r="J27">
-        <v>0.1027866038515</v>
+        <v>0.1236839551296421</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>46.6628512328905</v>
+        <v>50.102415</v>
       </c>
       <c r="N27">
-        <v>46.6628512328905</v>
+        <v>150.307245</v>
       </c>
       <c r="O27">
-        <v>0.6756272088966082</v>
+        <v>0.6744347151618419</v>
       </c>
       <c r="P27">
-        <v>0.6756272088966082</v>
+        <v>0.7500482829664925</v>
       </c>
       <c r="Q27">
-        <v>3596.19336070053</v>
+        <v>4274.580492405629</v>
       </c>
       <c r="R27">
-        <v>3596.19336070053</v>
+        <v>38471.22443165066</v>
       </c>
       <c r="S27">
-        <v>0.06944542627215031</v>
+        <v>0.073993719241048</v>
       </c>
       <c r="T27">
-        <v>0.06944542627215031</v>
+        <v>0.09276893817549275</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>77.06758729234571</v>
+        <v>85.31685533333332</v>
       </c>
       <c r="H28">
-        <v>77.06758729234571</v>
+        <v>255.950566</v>
       </c>
       <c r="I28">
-        <v>0.1027866038515</v>
+        <v>0.1097122042765725</v>
       </c>
       <c r="J28">
-        <v>0.1027866038515</v>
+        <v>0.1236839551296421</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.396210090471873</v>
+        <v>0.4051446666666667</v>
       </c>
       <c r="N28">
-        <v>0.396210090471873</v>
+        <v>1.215434</v>
       </c>
       <c r="O28">
-        <v>0.00573669011835911</v>
+        <v>0.005453701739979455</v>
       </c>
       <c r="P28">
-        <v>0.00573669011835911</v>
+        <v>0.006065138009542361</v>
       </c>
       <c r="Q28">
-        <v>30.53495573354926</v>
+        <v>34.56566891507156</v>
       </c>
       <c r="R28">
-        <v>30.53495573354926</v>
+        <v>311.091020235644</v>
       </c>
       <c r="S28">
-        <v>0.0005896548946145925</v>
+        <v>0.000598337639360125</v>
       </c>
       <c r="T28">
-        <v>0.0005896548946145925</v>
+        <v>0.0007501602574273241</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>77.06758729234571</v>
+        <v>85.31685533333332</v>
       </c>
       <c r="H29">
-        <v>77.06758729234571</v>
+        <v>255.950566</v>
       </c>
       <c r="I29">
-        <v>0.1027866038515</v>
+        <v>0.1097122042765725</v>
       </c>
       <c r="J29">
-        <v>0.1027866038515</v>
+        <v>0.1236839551296421</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.28256418987611</v>
+        <v>0.2841426666666667</v>
       </c>
       <c r="N29">
-        <v>0.28256418987611</v>
+        <v>0.8524280000000001</v>
       </c>
       <c r="O29">
-        <v>0.004091221386951277</v>
+        <v>0.00382487906937539</v>
       </c>
       <c r="P29">
-        <v>0.004091221386951277</v>
+        <v>0.004253701528176911</v>
       </c>
       <c r="Q29">
-        <v>21.77654036896805</v>
+        <v>24.24215878602756</v>
       </c>
       <c r="R29">
-        <v>21.77654036896805</v>
+        <v>218.179429074248</v>
       </c>
       <c r="S29">
-        <v>0.0004205227519693453</v>
+        <v>0.0004196359137924993</v>
       </c>
       <c r="T29">
-        <v>0.0004205227519693453</v>
+        <v>0.0005261146289459231</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>77.06758729234571</v>
+        <v>85.31685533333332</v>
       </c>
       <c r="H30">
-        <v>77.06758729234571</v>
+        <v>255.950566</v>
       </c>
       <c r="I30">
-        <v>0.1027866038515</v>
+        <v>0.1097122042765725</v>
       </c>
       <c r="J30">
-        <v>0.1027866038515</v>
+        <v>0.1236839551296421</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.907899109846906</v>
+        <v>1.029030333333333</v>
       </c>
       <c r="N30">
-        <v>0.907899109846906</v>
+        <v>3.087091</v>
       </c>
       <c r="O30">
-        <v>0.01314538921944876</v>
+        <v>0.01385190274270336</v>
       </c>
       <c r="P30">
-        <v>0.01314538921944876</v>
+        <v>0.01540489484662774</v>
       </c>
       <c r="Q30">
-        <v>69.9695939007694</v>
+        <v>87.79363208261177</v>
       </c>
       <c r="R30">
-        <v>69.9695939007694</v>
+        <v>790.1426887435059</v>
       </c>
       <c r="S30">
-        <v>0.001351169914173259</v>
+        <v>0.001519722783326686</v>
       </c>
       <c r="T30">
-        <v>0.001351169914173259</v>
+        <v>0.001905338322987159</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>77.06758729234571</v>
+        <v>85.31685533333332</v>
       </c>
       <c r="H31">
-        <v>77.06758729234571</v>
+        <v>255.950566</v>
       </c>
       <c r="I31">
-        <v>0.1027866038515</v>
+        <v>0.1097122042765725</v>
       </c>
       <c r="J31">
-        <v>0.1027866038515</v>
+        <v>0.1236839551296421</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>20.2596004811042</v>
+        <v>21.8974465</v>
       </c>
       <c r="N31">
-        <v>20.2596004811042</v>
+        <v>43.794893</v>
       </c>
       <c r="O31">
-        <v>0.293336925729065</v>
+        <v>0.2947641963565862</v>
       </c>
       <c r="P31">
-        <v>0.293336925729065</v>
+        <v>0.2185409246064703</v>
       </c>
       <c r="Q31">
-        <v>1561.358528585547</v>
+        <v>1868.221275209906</v>
       </c>
       <c r="R31">
-        <v>1561.358528585547</v>
+        <v>11209.32765125944</v>
       </c>
       <c r="S31">
-        <v>0.03015110637993028</v>
+        <v>0.03233922972409352</v>
       </c>
       <c r="T31">
-        <v>0.03015110637993028</v>
+        <v>0.02703000591301717</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>188.908691862036</v>
+        <v>196.693321</v>
       </c>
       <c r="H32">
-        <v>188.908691862036</v>
+        <v>393.386642</v>
       </c>
       <c r="I32">
-        <v>0.2519513527894844</v>
+        <v>0.2529354572326609</v>
       </c>
       <c r="J32">
-        <v>0.2519513527894844</v>
+        <v>0.1900977072960588</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.55684888033559</v>
+        <v>0.569834</v>
       </c>
       <c r="N32">
-        <v>0.55684888033559</v>
+        <v>1.139668</v>
       </c>
       <c r="O32">
-        <v>0.008062564649567625</v>
+        <v>0.007670604929513537</v>
       </c>
       <c r="P32">
-        <v>0.008062564649567625</v>
+        <v>0.005687058042690201</v>
       </c>
       <c r="Q32">
-        <v>105.1935935490357</v>
+        <v>112.082541878714</v>
       </c>
       <c r="R32">
-        <v>105.1935935490357</v>
+        <v>448.3301675148559</v>
       </c>
       <c r="S32">
-        <v>0.002031374070411238</v>
+        <v>0.001940167965097609</v>
       </c>
       <c r="T32">
-        <v>0.002031374070411238</v>
+        <v>0.001081096695175019</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>188.908691862036</v>
+        <v>196.693321</v>
       </c>
       <c r="H33">
-        <v>188.908691862036</v>
+        <v>393.386642</v>
       </c>
       <c r="I33">
-        <v>0.2519513527894844</v>
+        <v>0.2529354572326609</v>
       </c>
       <c r="J33">
-        <v>0.2519513527894844</v>
+        <v>0.1900977072960588</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>46.6628512328905</v>
+        <v>50.102415</v>
       </c>
       <c r="N33">
-        <v>46.6628512328905</v>
+        <v>150.307245</v>
       </c>
       <c r="O33">
-        <v>0.6756272088966082</v>
+        <v>0.6744347151618419</v>
       </c>
       <c r="P33">
-        <v>0.6756272088966082</v>
+        <v>0.7500482829664925</v>
       </c>
       <c r="Q33">
-        <v>8815.018184958139</v>
+        <v>9854.810396470215</v>
       </c>
       <c r="R33">
-        <v>8815.018184958139</v>
+        <v>59128.86237882129</v>
       </c>
       <c r="S33">
-        <v>0.170225189262884</v>
+        <v>0.1705884530530399</v>
       </c>
       <c r="T33">
-        <v>0.170225189262884</v>
+        <v>0.1425824589532758</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>188.908691862036</v>
+        <v>196.693321</v>
       </c>
       <c r="H34">
-        <v>188.908691862036</v>
+        <v>393.386642</v>
       </c>
       <c r="I34">
-        <v>0.2519513527894844</v>
+        <v>0.2529354572326609</v>
       </c>
       <c r="J34">
-        <v>0.2519513527894844</v>
+        <v>0.1900977072960588</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.396210090471873</v>
+        <v>0.4051446666666667</v>
       </c>
       <c r="N34">
-        <v>0.396210090471873</v>
+        <v>1.215434</v>
       </c>
       <c r="O34">
-        <v>0.00573669011835911</v>
+        <v>0.005453701739979455</v>
       </c>
       <c r="P34">
-        <v>0.00573669011835911</v>
+        <v>0.006065138009542361</v>
       </c>
       <c r="Q34">
-        <v>74.84752989358046</v>
+        <v>79.68924997210468</v>
       </c>
       <c r="R34">
-        <v>74.84752989358046</v>
+        <v>478.1354998326281</v>
       </c>
       <c r="S34">
-        <v>0.001445366835854645</v>
+        <v>0.001379434543212262</v>
       </c>
       <c r="T34">
-        <v>0.001445366835854645</v>
+        <v>0.001152968830048184</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>188.908691862036</v>
+        <v>196.693321</v>
       </c>
       <c r="H35">
-        <v>188.908691862036</v>
+        <v>393.386642</v>
       </c>
       <c r="I35">
-        <v>0.2519513527894844</v>
+        <v>0.2529354572326609</v>
       </c>
       <c r="J35">
-        <v>0.2519513527894844</v>
+        <v>0.1900977072960588</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.28256418987611</v>
+        <v>0.2841426666666667</v>
       </c>
       <c r="N35">
-        <v>0.28256418987611</v>
+        <v>0.8524280000000001</v>
       </c>
       <c r="O35">
-        <v>0.004091221386951277</v>
+        <v>0.00382487906937539</v>
       </c>
       <c r="P35">
-        <v>0.004091221386951277</v>
+        <v>0.004253701528176911</v>
       </c>
       <c r="Q35">
-        <v>53.37883147655189</v>
+        <v>55.88896474446268</v>
       </c>
       <c r="R35">
-        <v>53.37883147655189</v>
+        <v>335.333788466776</v>
       </c>
       <c r="S35">
-        <v>0.001030788763003645</v>
+        <v>0.0009674475362720989</v>
       </c>
       <c r="T35">
-        <v>0.001030788763003645</v>
+        <v>0.0008086189080281725</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>188.908691862036</v>
+        <v>196.693321</v>
       </c>
       <c r="H36">
-        <v>188.908691862036</v>
+        <v>393.386642</v>
       </c>
       <c r="I36">
-        <v>0.2519513527894844</v>
+        <v>0.2529354572326609</v>
       </c>
       <c r="J36">
-        <v>0.2519513527894844</v>
+        <v>0.1900977072960588</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.907899109846906</v>
+        <v>1.029030333333333</v>
       </c>
       <c r="N36">
-        <v>0.907899109846906</v>
+        <v>3.087091</v>
       </c>
       <c r="O36">
-        <v>0.01314538921944876</v>
+        <v>0.01385190274270336</v>
       </c>
       <c r="P36">
-        <v>0.01314538921944876</v>
+        <v>0.01540489484662774</v>
       </c>
       <c r="Q36">
-        <v>171.510033183886</v>
+        <v>202.4033936730703</v>
       </c>
       <c r="R36">
-        <v>171.510033183886</v>
+        <v>1214.420362038422</v>
       </c>
       <c r="S36">
-        <v>0.00331199859678442</v>
+        <v>0.003503637353768024</v>
       </c>
       <c r="T36">
-        <v>0.00331199859678442</v>
+        <v>0.002928435191480804</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>188.908691862036</v>
+        <v>196.693321</v>
       </c>
       <c r="H37">
-        <v>188.908691862036</v>
+        <v>393.386642</v>
       </c>
       <c r="I37">
-        <v>0.2519513527894844</v>
+        <v>0.2529354572326609</v>
       </c>
       <c r="J37">
-        <v>0.2519513527894844</v>
+        <v>0.1900977072960588</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>20.2596004811042</v>
+        <v>21.8974465</v>
       </c>
       <c r="N37">
-        <v>20.2596004811042</v>
+        <v>43.794893</v>
       </c>
       <c r="O37">
-        <v>0.293336925729065</v>
+        <v>0.2947641963565862</v>
       </c>
       <c r="P37">
-        <v>0.293336925729065</v>
+        <v>0.2185409246064703</v>
       </c>
       <c r="Q37">
-        <v>3827.214624532869</v>
+        <v>4307.081473504827</v>
       </c>
       <c r="R37">
-        <v>3827.214624532869</v>
+        <v>17228.32589401931</v>
       </c>
       <c r="S37">
-        <v>0.07390663526054643</v>
+        <v>0.07455631678127099</v>
       </c>
       <c r="T37">
-        <v>0.07390663526054643</v>
+        <v>0.04154412871805085</v>
       </c>
     </row>
   </sheetData>
